--- a/Data/Temp/SalesList.xlsx
+++ b/Data/Temp/SalesList.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinii\OneDrive\Documentos\UiPath\NubankRpaCase\Data\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058B76CE-C235-488A-9753-509905C7B592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D1C454-3AA9-4E5C-B3F4-B551AE2CD90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3105BB02-D7EC-4DEE-B35C-501904F57A63}"/>
+    <workbookView xWindow="-27720" yWindow="1080" windowWidth="21600" windowHeight="11295" xr2:uid="{EDC3CD85-BE66-44C9-AD00-164C7C963606}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,29 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="130">
-  <si>
-    <t xml:space="preserve"> INVOICE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    DATE   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">POSTAL CODE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENDOR ID </t>
-  </si>
-  <si>
-    <t xml:space="preserve">           ITEM TYPE      </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="117">
   <si>
     <t>QTY</t>
   </si>
   <si>
-    <t xml:space="preserve"> UNIT COST</t>
-  </si>
-  <si>
     <t>TOTAL PRICE</t>
   </si>
   <si>
@@ -68,10 +50,7 @@
     <t>Valor Total (BRL)</t>
   </si>
   <si>
-    <t>Data/Hora</t>
-  </si>
-  <si>
-    <t>Conversão do Câmbio</t>
+    <t>Data/Hora Conversão do Câmbio</t>
   </si>
   <si>
     <t>Endereço</t>
@@ -86,346 +65,328 @@
     <t>Erros Encontrados</t>
   </si>
   <si>
-    <t xml:space="preserve"> 27/01/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   01034-903</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DE325476 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            IT Support    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 41053 USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 246318 USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20/01/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   01036-970</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  IT145632</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 25559 EUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 204472 EUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14/01/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   01026-000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DE767565 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Professional Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 26675 RON</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 133375 RON</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 24/01/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   01025-010</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FR065748 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Beverages and Catering </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 29089 USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 203623 USD</t>
-  </si>
-  <si>
     <t>250ABB261</t>
   </si>
   <si>
-    <t xml:space="preserve"> 07/01/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   01008-000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE76E7565 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Concierge Services  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1031 RON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  5155 RON</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 05/01/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   01014-913</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RU567434 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11004 EUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 88032 EUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 18/01/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Various paper supplies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  9223 RON</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 83007 RON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  10-jan-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 33706 EUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 101118 EUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waste management services </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  8955 EUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 62685 EUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 21/01/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 24948 EUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 199584 EUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16/01/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 57217 USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 286085 USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 32895 EUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 328950 EUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 03/01/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2447 USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 19576 USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000-00-00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   01011-000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RO254678M </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 39800 CAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 358200 CAD</t>
-  </si>
-  <si>
     <t>332614 USD</t>
   </si>
   <si>
-    <t xml:space="preserve"> 332614 USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 31/11/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20775 USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 186975 USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 21/02/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 37255 EUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 298040 EUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 18/02/2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   01049-030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1FR329083 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 24036 RON</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 48072 RON</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 04/02/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   04939-180</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RO125678 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 18090 RON</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 180900 RON</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 17734 USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 141872 USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 28/02/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   01013-010</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TE598431 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38192 USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 343728 USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 24/02/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 18902 USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 113412 USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 01/02/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   01013-020</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DE4 56232</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 40691 RON</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 284837 RON</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14/02/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7752 EUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 77520 EUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   20221-410</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RO094782 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 37991 FJD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 227946 FJD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 03/02/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20547 EUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 184923 EUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11/13/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  IT754893</t>
-  </si>
-  <si>
     <t>176729 EUR</t>
   </si>
   <si>
-    <t xml:space="preserve"> 176729 EUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 07/03/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2 BTC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     2 BTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 17/03/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 19450 USD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 175050 USD</t>
+    <t>INVOICE</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>POSTAL CODE</t>
+  </si>
+  <si>
+    <t>VENDOR ID</t>
+  </si>
+  <si>
+    <t>ITEM TYPE</t>
+  </si>
+  <si>
+    <t>UNIT COST</t>
+  </si>
+  <si>
+    <t>27/01/2018</t>
+  </si>
+  <si>
+    <t>01034-903</t>
+  </si>
+  <si>
+    <t>DE325476</t>
+  </si>
+  <si>
+    <t>IT Support</t>
+  </si>
+  <si>
+    <t>41053 USD</t>
+  </si>
+  <si>
+    <t>246318 USD</t>
+  </si>
+  <si>
+    <t>20/01/2018</t>
+  </si>
+  <si>
+    <t>01036-970</t>
+  </si>
+  <si>
+    <t>IT145632</t>
+  </si>
+  <si>
+    <t>25559 EUR</t>
+  </si>
+  <si>
+    <t>204472 EUR</t>
+  </si>
+  <si>
+    <t>14/01/2018</t>
+  </si>
+  <si>
+    <t>01026-000</t>
+  </si>
+  <si>
+    <t>DE767565</t>
+  </si>
+  <si>
+    <t>Professional Services</t>
+  </si>
+  <si>
+    <t>26675 RON</t>
+  </si>
+  <si>
+    <t>133375 RON</t>
+  </si>
+  <si>
+    <t>24/01/2018</t>
+  </si>
+  <si>
+    <t>01025-010</t>
+  </si>
+  <si>
+    <t>FR065748</t>
+  </si>
+  <si>
+    <t>Beverages and Catering</t>
+  </si>
+  <si>
+    <t>29089 USD</t>
+  </si>
+  <si>
+    <t>203623 USD</t>
+  </si>
+  <si>
+    <t>01008-000</t>
+  </si>
+  <si>
+    <t>DE76E7565</t>
+  </si>
+  <si>
+    <t>Concierge Services</t>
+  </si>
+  <si>
+    <t>1031 RON</t>
+  </si>
+  <si>
+    <t>5155 RON</t>
+  </si>
+  <si>
+    <t>01014-913</t>
+  </si>
+  <si>
+    <t>RU567434</t>
+  </si>
+  <si>
+    <t>11004 EUR</t>
+  </si>
+  <si>
+    <t>88032 EUR</t>
+  </si>
+  <si>
+    <t>18/01/2022</t>
+  </si>
+  <si>
+    <t>Various paper supplies</t>
+  </si>
+  <si>
+    <t>9223 RON</t>
+  </si>
+  <si>
+    <t>83007 RON</t>
+  </si>
+  <si>
+    <t>33706 EUR</t>
+  </si>
+  <si>
+    <t>101118 EUR</t>
+  </si>
+  <si>
+    <t>Waste management services</t>
+  </si>
+  <si>
+    <t>8955 EUR</t>
+  </si>
+  <si>
+    <t>62685 EUR</t>
+  </si>
+  <si>
+    <t>21/01/2018</t>
+  </si>
+  <si>
+    <t>24948 EUR</t>
+  </si>
+  <si>
+    <t>199584 EUR</t>
+  </si>
+  <si>
+    <t>16/01/2018</t>
+  </si>
+  <si>
+    <t>57217 USD</t>
+  </si>
+  <si>
+    <t>286085 USD</t>
+  </si>
+  <si>
+    <t>32895 EUR</t>
+  </si>
+  <si>
+    <t>328950 EUR</t>
+  </si>
+  <si>
+    <t>2447 USD</t>
+  </si>
+  <si>
+    <t>19576 USD</t>
+  </si>
+  <si>
+    <t>0000-00-00</t>
+  </si>
+  <si>
+    <t>01011-000</t>
+  </si>
+  <si>
+    <t>RO254678M</t>
+  </si>
+  <si>
+    <t>39800 CAD</t>
+  </si>
+  <si>
+    <t>358200 CAD</t>
+  </si>
+  <si>
+    <t>31/11/2018</t>
+  </si>
+  <si>
+    <t>20775 USD</t>
+  </si>
+  <si>
+    <t>186975 USD</t>
+  </si>
+  <si>
+    <t>21/02/2018</t>
+  </si>
+  <si>
+    <t>37255 EUR</t>
+  </si>
+  <si>
+    <t>298040 EUR</t>
+  </si>
+  <si>
+    <t>18/02/2010</t>
+  </si>
+  <si>
+    <t>01049-030</t>
+  </si>
+  <si>
+    <t>1FR329083</t>
+  </si>
+  <si>
+    <t>24036 RON</t>
+  </si>
+  <si>
+    <t>48072 RON</t>
+  </si>
+  <si>
+    <t>04939-180</t>
+  </si>
+  <si>
+    <t>RO125678</t>
+  </si>
+  <si>
+    <t>18090 RON</t>
+  </si>
+  <si>
+    <t>180900 RON</t>
+  </si>
+  <si>
+    <t>17734 USD</t>
+  </si>
+  <si>
+    <t>141872 USD</t>
+  </si>
+  <si>
+    <t>28/02/2018</t>
+  </si>
+  <si>
+    <t>01013-010</t>
+  </si>
+  <si>
+    <t>TE598431</t>
+  </si>
+  <si>
+    <t>38192 USD</t>
+  </si>
+  <si>
+    <t>343728 USD</t>
+  </si>
+  <si>
+    <t>24/02/2018</t>
+  </si>
+  <si>
+    <t>18902 USD</t>
+  </si>
+  <si>
+    <t>113412 USD</t>
+  </si>
+  <si>
+    <t>01013-020</t>
+  </si>
+  <si>
+    <t>DE4 56232</t>
+  </si>
+  <si>
+    <t>40691 RON</t>
+  </si>
+  <si>
+    <t>284837 RON</t>
+  </si>
+  <si>
+    <t>14/02/2018</t>
+  </si>
+  <si>
+    <t>7752 EUR</t>
+  </si>
+  <si>
+    <t>77520 EUR</t>
+  </si>
+  <si>
+    <t>20221-410</t>
+  </si>
+  <si>
+    <t>RO094782</t>
+  </si>
+  <si>
+    <t>37991 FJD</t>
+  </si>
+  <si>
+    <t>227946 FJD</t>
+  </si>
+  <si>
+    <t>20547 EUR</t>
+  </si>
+  <si>
+    <t>184923 EUR</t>
+  </si>
+  <si>
+    <t>IT754893</t>
+  </si>
+  <si>
+    <t>2 BTC</t>
+  </si>
+  <si>
+    <t>17/03/2018</t>
+  </si>
+  <si>
+    <t>19450 USD</t>
+  </si>
+  <si>
+    <t>175050 USD</t>
   </si>
 </sst>
 </file>
@@ -461,8 +422,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -796,173 +759,171 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1013D3-41B1-4B73-A833-2C1BE680B6D5}">
-  <dimension ref="A1:P30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5E1F4A-7F6A-4637-B6B7-CDE31EF76F22}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>112050</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F2">
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>826833</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>663318</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4">
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>301006</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5">
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43282</v>
       </c>
       <c r="C6" t="s">
         <v>41</v>
@@ -983,148 +944,148 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>700257</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1">
+        <v>43221</v>
+      </c>
+      <c r="C7" t="s">
         <v>46</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>47</v>
       </c>
-      <c r="D7" t="s">
-        <v>48</v>
-      </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F7">
         <v>8</v>
       </c>
       <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
         <v>49</v>
       </c>
-      <c r="H7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>708788</v>
       </c>
       <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
         <v>51</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>52</v>
       </c>
       <c r="F8">
         <v>9</v>
       </c>
       <c r="G8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" t="s">
         <v>53</v>
       </c>
-      <c r="H8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>215835</v>
       </c>
-      <c r="B9" t="s">
-        <v>55</v>
+      <c r="B9" s="2">
+        <v>42745</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9">
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>982763</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
         <v>47</v>
       </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F10">
         <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>231319</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F11">
         <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>526408</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
         <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
       </c>
       <c r="E12" t="s">
         <v>43</v>
@@ -1133,24 +1094,24 @@
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>147239</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
         <v>43</v>
@@ -1159,88 +1120,88 @@
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>296596</v>
       </c>
-      <c r="B14" t="s">
-        <v>69</v>
+      <c r="B14" s="1">
+        <v>43160</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F14">
         <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>955164</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F15">
         <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>349606</v>
       </c>
-      <c r="B16" t="s">
-        <v>69</v>
+      <c r="B16" s="1">
+        <v>43160</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1248,25 +1209,25 @@
         <v>680422</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
         <v>47</v>
       </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F17">
         <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H17" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1274,13 +1235,13 @@
         <v>696770</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
         <v>47</v>
-      </c>
-      <c r="D18" t="s">
-        <v>48</v>
       </c>
       <c r="E18" t="s">
         <v>43</v>
@@ -1289,10 +1250,10 @@
         <v>8</v>
       </c>
       <c r="G18" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1300,65 +1261,65 @@
         <v>101435</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F19">
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H19" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>362980</v>
       </c>
-      <c r="B20" t="s">
-        <v>90</v>
+      <c r="B20" s="1">
+        <v>43192</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F20">
         <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>942753</v>
       </c>
-      <c r="B21" t="s">
-        <v>90</v>
+      <c r="B21" s="1">
+        <v>43192</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s">
         <v>43</v>
@@ -1367,10 +1328,10 @@
         <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1378,25 +1339,25 @@
         <v>570199</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F22">
         <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H22" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1404,51 +1365,51 @@
         <v>160970</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
         <v>47</v>
       </c>
-      <c r="D23" t="s">
-        <v>48</v>
-      </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F23">
         <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H23" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>568949</v>
       </c>
-      <c r="B24" t="s">
-        <v>105</v>
+      <c r="B24" s="1">
+        <v>43102</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F24">
         <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H24" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1456,25 +1417,25 @@
         <v>867556</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F25">
         <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H25" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1482,91 +1443,91 @@
         <v>421789</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D26" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F26">
         <v>6</v>
       </c>
       <c r="G26" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="H26" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>713873</v>
       </c>
-      <c r="B27" t="s">
-        <v>117</v>
+      <c r="B27" s="1">
+        <v>43161</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F27">
         <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H27" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>450884</v>
       </c>
-      <c r="B28" t="s">
-        <v>120</v>
+      <c r="B28" s="1">
+        <v>43417</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="H28" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>951433</v>
       </c>
-      <c r="B29" t="s">
-        <v>124</v>
+      <c r="B29" s="1">
+        <v>43284</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E29" t="s">
         <v>43</v>
@@ -1575,10 +1536,10 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="H29" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1586,13 +1547,13 @@
         <v>145432</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E30" t="s">
         <v>43</v>
@@ -1601,10 +1562,10 @@
         <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="H30" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Temp/SalesList.xlsx
+++ b/Data/Temp/SalesList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinii\OneDrive\Documentos\UiPath\NubankRpaCase\Data\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D1C454-3AA9-4E5C-B3F4-B551AE2CD90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4053BD-48DC-425A-A19E-D0DFB18EE58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27720" yWindow="1080" windowWidth="21600" windowHeight="11295" xr2:uid="{EDC3CD85-BE66-44C9-AD00-164C7C963606}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EDC3CD85-BE66-44C9-AD00-164C7C963606}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,34 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="117">
-  <si>
-    <t>QTY</t>
-  </si>
-  <si>
-    <t>TOTAL PRICE</t>
-  </si>
-  <si>
-    <t>Valor Unitário (BRL)</t>
-  </si>
-  <si>
-    <t>Valor Total (BRL)</t>
-  </si>
-  <si>
-    <t>Data/Hora Conversão do Câmbio</t>
-  </si>
-  <si>
-    <t>Endereço</t>
-  </si>
-  <si>
-    <t>Bairro</t>
-  </si>
-  <si>
-    <t>Localidade/UF</t>
-  </si>
-  <si>
-    <t>Erros Encontrados</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="102">
   <si>
     <t>250ABB261</t>
   </si>
@@ -72,24 +45,6 @@
   </si>
   <si>
     <t>176729 EUR</t>
-  </si>
-  <si>
-    <t>INVOICE</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>POSTAL CODE</t>
-  </si>
-  <si>
-    <t>VENDOR ID</t>
-  </si>
-  <si>
-    <t>ITEM TYPE</t>
-  </si>
-  <si>
-    <t>UNIT COST</t>
   </si>
   <si>
     <t>27/01/2018</t>
@@ -761,785 +716,764 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5E1F4A-7F6A-4637-B6B7-CDE31EF76F22}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>112050</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>826833</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>663318</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>301006</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B5" s="1">
+        <v>43282</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>700257</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43221</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>708788</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>215835</v>
+      </c>
+      <c r="B8" s="1">
+        <v>42745</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>982763</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>231319</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>526408</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>147239</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>296596</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43160</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>955164</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>349606</v>
+      </c>
+      <c r="B15" s="1">
+        <v>43160</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>680422</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
         <v>6</v>
       </c>
-      <c r="N1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>112050</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>826833</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>663318</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>301006</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="F16">
         <v>9</v>
       </c>
-      <c r="B6" s="1">
-        <v>43282</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>700257</v>
-      </c>
-      <c r="B7" s="1">
-        <v>43221</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7">
-        <v>8</v>
-      </c>
-      <c r="G7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>708788</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>215835</v>
-      </c>
-      <c r="B9" s="2">
-        <v>42745</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>982763</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
-      <c r="G10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>231319</v>
-      </c>
-      <c r="B11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11">
-        <v>8</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="G16" t="s">
         <v>60</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H16" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>526408</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>147239</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>296596</v>
-      </c>
-      <c r="B14" s="1">
-        <v>43160</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14">
-        <v>8</v>
-      </c>
-      <c r="G14" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>955164</v>
-      </c>
-      <c r="B15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15">
-        <v>9</v>
-      </c>
-      <c r="G15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>349606</v>
-      </c>
-      <c r="B16" s="1">
-        <v>43160</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>680422</v>
+        <v>696770</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="H17" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>696770</v>
+        <v>101435</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F18">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H18" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>101435</v>
-      </c>
-      <c r="B19" t="s">
-        <v>80</v>
+        <v>362980</v>
+      </c>
+      <c r="B19" s="1">
+        <v>43192</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>362980</v>
+        <v>942753</v>
       </c>
       <c r="B20" s="1">
         <v>43192</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H20" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>942753</v>
-      </c>
-      <c r="B21" s="1">
-        <v>43192</v>
+        <v>570199</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>570199</v>
+        <v>160970</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F22">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G22" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>160970</v>
-      </c>
-      <c r="B23" t="s">
-        <v>96</v>
+        <v>568949</v>
+      </c>
+      <c r="B23" s="1">
+        <v>43102</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="F23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G23" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>568949</v>
-      </c>
-      <c r="B24" s="1">
-        <v>43102</v>
+        <v>867556</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F24">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>867556</v>
+        <v>421789</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G25" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H25" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>421789</v>
-      </c>
-      <c r="B26" t="s">
-        <v>103</v>
+        <v>713873</v>
+      </c>
+      <c r="B26" s="1">
+        <v>43161</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="F26">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="H26" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>713873</v>
+        <v>450884</v>
       </c>
       <c r="B27" s="1">
-        <v>43161</v>
+        <v>43417</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F27">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>450884</v>
+        <v>951433</v>
       </c>
       <c r="B28" s="1">
-        <v>43417</v>
+        <v>43284</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="H28" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>951433</v>
-      </c>
-      <c r="B29" s="1">
-        <v>43284</v>
+        <v>145432</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G29" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="H29" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1547,25 +1481,25 @@
         <v>145432</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F30">
         <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="H30" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
